--- a/japan.xlsx
+++ b/japan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t xml:space="preserve">mpg</t>
   </si>
@@ -35,13 +35,7 @@
     <t xml:space="preserve">model_year</t>
   </si>
   <si>
-    <t xml:space="preserve">origin</t>
-  </si>
-  <si>
     <t xml:space="preserve">name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">japan</t>
   </si>
   <si>
     <t xml:space="preserve">toyota corona mark ii</t>
@@ -269,9 +263,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:I80" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:I80"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:H80" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:H80"/>
+  <tableColumns count="8">
     <tableColumn id="1" name="mpg"/>
     <tableColumn id="2" name="cylinders"/>
     <tableColumn id="3" name="displacement"/>
@@ -279,8 +273,7 @@
     <tableColumn id="5" name="weight"/>
     <tableColumn id="6" name="acceleration"/>
     <tableColumn id="7" name="model_year"/>
-    <tableColumn id="8" name="origin"/>
-    <tableColumn id="9" name="name"/>
+    <tableColumn id="8" name="name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -596,9 +589,6 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -623,10 +613,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -654,9 +641,6 @@
       <c r="H3" t="s">
         <v>9</v>
       </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -683,9 +667,6 @@
       <c r="H4" t="s">
         <v>9</v>
       </c>
-      <c r="I4" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -710,10 +691,7 @@
         <v>71</v>
       </c>
       <c r="H5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -739,10 +717,7 @@
         <v>71</v>
       </c>
       <c r="H6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -768,10 +743,7 @@
         <v>71</v>
       </c>
       <c r="H7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -797,10 +769,7 @@
         <v>72</v>
       </c>
       <c r="H8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -826,10 +795,7 @@
         <v>72</v>
       </c>
       <c r="H9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -855,10 +821,7 @@
         <v>72</v>
       </c>
       <c r="H10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -884,10 +847,7 @@
         <v>72</v>
       </c>
       <c r="H11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -913,10 +873,7 @@
         <v>72</v>
       </c>
       <c r="H12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
@@ -942,10 +899,7 @@
         <v>73</v>
       </c>
       <c r="H13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -971,10 +925,7 @@
         <v>73</v>
       </c>
       <c r="H14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
@@ -1000,10 +951,7 @@
         <v>73</v>
       </c>
       <c r="H15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
@@ -1029,10 +977,7 @@
         <v>73</v>
       </c>
       <c r="H16" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
@@ -1058,10 +1003,7 @@
         <v>74</v>
       </c>
       <c r="H17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
@@ -1087,10 +1029,7 @@
         <v>74</v>
       </c>
       <c r="H18" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -1116,10 +1055,7 @@
         <v>74</v>
       </c>
       <c r="H19" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1145,10 +1081,7 @@
         <v>74</v>
       </c>
       <c r="H20" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
@@ -1174,10 +1107,7 @@
         <v>74</v>
       </c>
       <c r="H21" t="s">
-        <v>9</v>
-      </c>
-      <c r="I21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
@@ -1203,10 +1133,7 @@
         <v>74</v>
       </c>
       <c r="H22" t="s">
-        <v>9</v>
-      </c>
-      <c r="I22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -1232,10 +1159,7 @@
         <v>75</v>
       </c>
       <c r="H23" t="s">
-        <v>9</v>
-      </c>
-      <c r="I23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
@@ -1261,10 +1185,7 @@
         <v>75</v>
       </c>
       <c r="H24" t="s">
-        <v>9</v>
-      </c>
-      <c r="I24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -1290,10 +1211,7 @@
         <v>75</v>
       </c>
       <c r="H25" t="s">
-        <v>9</v>
-      </c>
-      <c r="I25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
@@ -1319,10 +1237,7 @@
         <v>75</v>
       </c>
       <c r="H26" t="s">
-        <v>9</v>
-      </c>
-      <c r="I26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27">
@@ -1348,10 +1263,7 @@
         <v>76</v>
       </c>
       <c r="H27" t="s">
-        <v>9</v>
-      </c>
-      <c r="I27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28">
@@ -1377,10 +1289,7 @@
         <v>76</v>
       </c>
       <c r="H28" t="s">
-        <v>9</v>
-      </c>
-      <c r="I28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
@@ -1406,10 +1315,7 @@
         <v>76</v>
       </c>
       <c r="H29" t="s">
-        <v>9</v>
-      </c>
-      <c r="I29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
@@ -1435,10 +1341,7 @@
         <v>76</v>
       </c>
       <c r="H30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31">
@@ -1464,10 +1367,7 @@
         <v>77</v>
       </c>
       <c r="H31" t="s">
-        <v>9</v>
-      </c>
-      <c r="I31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32">
@@ -1493,10 +1393,7 @@
         <v>77</v>
       </c>
       <c r="H32" t="s">
-        <v>9</v>
-      </c>
-      <c r="I32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
@@ -1522,10 +1419,7 @@
         <v>77</v>
       </c>
       <c r="H33" t="s">
-        <v>9</v>
-      </c>
-      <c r="I33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34">
@@ -1551,10 +1445,7 @@
         <v>77</v>
       </c>
       <c r="H34" t="s">
-        <v>9</v>
-      </c>
-      <c r="I34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35">
@@ -1580,10 +1471,7 @@
         <v>77</v>
       </c>
       <c r="H35" t="s">
-        <v>9</v>
-      </c>
-      <c r="I35" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36">
@@ -1609,10 +1497,7 @@
         <v>77</v>
       </c>
       <c r="H36" t="s">
-        <v>9</v>
-      </c>
-      <c r="I36" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37">
@@ -1638,10 +1523,7 @@
         <v>78</v>
       </c>
       <c r="H37" t="s">
-        <v>9</v>
-      </c>
-      <c r="I37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38">
@@ -1667,10 +1549,7 @@
         <v>78</v>
       </c>
       <c r="H38" t="s">
-        <v>9</v>
-      </c>
-      <c r="I38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39">
@@ -1696,10 +1575,7 @@
         <v>78</v>
       </c>
       <c r="H39" t="s">
-        <v>9</v>
-      </c>
-      <c r="I39" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40">
@@ -1725,10 +1601,7 @@
         <v>78</v>
       </c>
       <c r="H40" t="s">
-        <v>9</v>
-      </c>
-      <c r="I40" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -1754,10 +1627,7 @@
         <v>78</v>
       </c>
       <c r="H41" t="s">
-        <v>9</v>
-      </c>
-      <c r="I41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42">
@@ -1783,10 +1653,7 @@
         <v>78</v>
       </c>
       <c r="H42" t="s">
-        <v>9</v>
-      </c>
-      <c r="I42" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43">
@@ -1812,10 +1679,7 @@
         <v>78</v>
       </c>
       <c r="H43" t="s">
-        <v>9</v>
-      </c>
-      <c r="I43" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44">
@@ -1841,10 +1705,7 @@
         <v>78</v>
       </c>
       <c r="H44" t="s">
-        <v>9</v>
-      </c>
-      <c r="I44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45">
@@ -1870,10 +1731,7 @@
         <v>79</v>
       </c>
       <c r="H45" t="s">
-        <v>9</v>
-      </c>
-      <c r="I45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46">
@@ -1899,10 +1757,7 @@
         <v>79</v>
       </c>
       <c r="H46" t="s">
-        <v>9</v>
-      </c>
-      <c r="I46" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47">
@@ -1928,10 +1783,7 @@
         <v>80</v>
       </c>
       <c r="H47" t="s">
-        <v>9</v>
-      </c>
-      <c r="I47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48">
@@ -1957,10 +1809,7 @@
         <v>80</v>
       </c>
       <c r="H48" t="s">
-        <v>9</v>
-      </c>
-      <c r="I48" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49">
@@ -1986,10 +1835,7 @@
         <v>80</v>
       </c>
       <c r="H49" t="s">
-        <v>9</v>
-      </c>
-      <c r="I49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50">
@@ -2015,10 +1861,7 @@
         <v>80</v>
       </c>
       <c r="H50" t="s">
-        <v>9</v>
-      </c>
-      <c r="I50" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51">
@@ -2044,10 +1887,7 @@
         <v>80</v>
       </c>
       <c r="H51" t="s">
-        <v>9</v>
-      </c>
-      <c r="I51" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52">
@@ -2073,10 +1913,7 @@
         <v>80</v>
       </c>
       <c r="H52" t="s">
-        <v>9</v>
-      </c>
-      <c r="I52" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53">
@@ -2102,10 +1939,7 @@
         <v>80</v>
       </c>
       <c r="H53" t="s">
-        <v>9</v>
-      </c>
-      <c r="I53" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54">
@@ -2131,10 +1965,7 @@
         <v>80</v>
       </c>
       <c r="H54" t="s">
-        <v>9</v>
-      </c>
-      <c r="I54" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55">
@@ -2160,10 +1991,7 @@
         <v>80</v>
       </c>
       <c r="H55" t="s">
-        <v>9</v>
-      </c>
-      <c r="I55" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56">
@@ -2189,10 +2017,7 @@
         <v>80</v>
       </c>
       <c r="H56" t="s">
-        <v>9</v>
-      </c>
-      <c r="I56" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57">
@@ -2218,10 +2043,7 @@
         <v>80</v>
       </c>
       <c r="H57" t="s">
-        <v>9</v>
-      </c>
-      <c r="I57" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58">
@@ -2247,10 +2069,7 @@
         <v>80</v>
       </c>
       <c r="H58" t="s">
-        <v>9</v>
-      </c>
-      <c r="I58" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59">
@@ -2276,10 +2095,7 @@
         <v>80</v>
       </c>
       <c r="H59" t="s">
-        <v>9</v>
-      </c>
-      <c r="I59" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60">
@@ -2305,10 +2121,7 @@
         <v>81</v>
       </c>
       <c r="H60" t="s">
-        <v>9</v>
-      </c>
-      <c r="I60" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61">
@@ -2334,10 +2147,7 @@
         <v>81</v>
       </c>
       <c r="H61" t="s">
-        <v>9</v>
-      </c>
-      <c r="I61" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62">
@@ -2363,10 +2173,7 @@
         <v>81</v>
       </c>
       <c r="H62" t="s">
-        <v>9</v>
-      </c>
-      <c r="I62" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63">
@@ -2392,10 +2199,7 @@
         <v>81</v>
       </c>
       <c r="H63" t="s">
-        <v>9</v>
-      </c>
-      <c r="I63" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64">
@@ -2421,10 +2225,7 @@
         <v>81</v>
       </c>
       <c r="H64" t="s">
-        <v>9</v>
-      </c>
-      <c r="I64" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65">
@@ -2450,10 +2251,7 @@
         <v>81</v>
       </c>
       <c r="H65" t="s">
-        <v>9</v>
-      </c>
-      <c r="I65" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66">
@@ -2479,10 +2277,7 @@
         <v>81</v>
       </c>
       <c r="H66" t="s">
-        <v>9</v>
-      </c>
-      <c r="I66" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67">
@@ -2508,10 +2303,7 @@
         <v>81</v>
       </c>
       <c r="H67" t="s">
-        <v>9</v>
-      </c>
-      <c r="I67" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68">
@@ -2537,10 +2329,7 @@
         <v>81</v>
       </c>
       <c r="H68" t="s">
-        <v>9</v>
-      </c>
-      <c r="I68" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69">
@@ -2566,10 +2355,7 @@
         <v>81</v>
       </c>
       <c r="H69" t="s">
-        <v>9</v>
-      </c>
-      <c r="I69" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70">
@@ -2595,10 +2381,7 @@
         <v>81</v>
       </c>
       <c r="H70" t="s">
-        <v>9</v>
-      </c>
-      <c r="I70" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71">
@@ -2624,10 +2407,7 @@
         <v>81</v>
       </c>
       <c r="H71" t="s">
-        <v>9</v>
-      </c>
-      <c r="I71" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72">
@@ -2653,10 +2433,7 @@
         <v>82</v>
       </c>
       <c r="H72" t="s">
-        <v>9</v>
-      </c>
-      <c r="I72" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73">
@@ -2682,10 +2459,7 @@
         <v>82</v>
       </c>
       <c r="H73" t="s">
-        <v>9</v>
-      </c>
-      <c r="I73" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74">
@@ -2711,10 +2485,7 @@
         <v>82</v>
       </c>
       <c r="H74" t="s">
-        <v>9</v>
-      </c>
-      <c r="I74" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75">
@@ -2740,10 +2511,7 @@
         <v>82</v>
       </c>
       <c r="H75" t="s">
-        <v>9</v>
-      </c>
-      <c r="I75" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76">
@@ -2769,10 +2537,7 @@
         <v>82</v>
       </c>
       <c r="H76" t="s">
-        <v>9</v>
-      </c>
-      <c r="I76" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77">
@@ -2798,10 +2563,7 @@
         <v>82</v>
       </c>
       <c r="H77" t="s">
-        <v>9</v>
-      </c>
-      <c r="I77" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78">
@@ -2827,10 +2589,7 @@
         <v>82</v>
       </c>
       <c r="H78" t="s">
-        <v>9</v>
-      </c>
-      <c r="I78" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79">
@@ -2856,10 +2615,7 @@
         <v>82</v>
       </c>
       <c r="H79" t="s">
-        <v>9</v>
-      </c>
-      <c r="I79" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80">
@@ -2885,10 +2641,7 @@
         <v>82</v>
       </c>
       <c r="H80" t="s">
-        <v>9</v>
-      </c>
-      <c r="I80" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
